--- a/MainTop/30.10.2025 Таня ВБ 2 месяца/spros_print_упак_упаковано.xlsx
+++ b/MainTop/30.10.2025 Таня ВБ 2 месяца/spros_print_упак_упаковано.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\30.10.2025 Таня ВБ 2 месяца\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\30.10.2025 Таня ВБ 2 месяца\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2C3BD4-616F-45E7-93C3-E959084CEB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EF7DE4-4A04-48C8-A2C9-E3F78337439D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1211,7 +1211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="H237" sqref="H237"/>
     </sheetView>
   </sheetViews>
@@ -7755,5 +7755,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>